--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H2">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I2">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J2">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N2">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O2">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P2">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q2">
-        <v>21.467598334317</v>
+        <v>42.13441008347533</v>
       </c>
       <c r="R2">
-        <v>193.208385008853</v>
+        <v>379.2096907512779</v>
       </c>
       <c r="S2">
-        <v>0.00786431460172181</v>
+        <v>0.009429471176634348</v>
       </c>
       <c r="T2">
-        <v>0.007864314601721809</v>
+        <v>0.009429471176634348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H3">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I3">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J3">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.466423</v>
       </c>
       <c r="O3">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P3">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q3">
-        <v>8.413656985016999</v>
+        <v>12.387215163867</v>
       </c>
       <c r="R3">
-        <v>75.72291286515299</v>
+        <v>111.484936474803</v>
       </c>
       <c r="S3">
-        <v>0.003082209963625771</v>
+        <v>0.002772197073960255</v>
       </c>
       <c r="T3">
-        <v>0.003082209963625772</v>
+        <v>0.002772197073960255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H4">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I4">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J4">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N4">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O4">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P4">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q4">
-        <v>113.044321191042</v>
+        <v>472.1535085900289</v>
       </c>
       <c r="R4">
-        <v>1017.398890719378</v>
+        <v>4249.38157731026</v>
       </c>
       <c r="S4">
-        <v>0.04141199643945761</v>
+        <v>0.1056656042264739</v>
       </c>
       <c r="T4">
-        <v>0.04141199643945761</v>
+        <v>0.1056656042264739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H5">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I5">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J5">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N5">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O5">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P5">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q5">
-        <v>0.5300377084619999</v>
+        <v>1.244530857193222</v>
       </c>
       <c r="R5">
-        <v>4.770339376158</v>
+        <v>11.200777714739</v>
       </c>
       <c r="S5">
-        <v>0.0001941709186657135</v>
+        <v>0.0002785198089420498</v>
       </c>
       <c r="T5">
-        <v>0.0001941709186657135</v>
+        <v>0.0002785198089420498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.233837</v>
+        <v>15.06702033333333</v>
       </c>
       <c r="H6">
-        <v>30.701511</v>
+        <v>45.201061</v>
       </c>
       <c r="I6">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="J6">
-        <v>0.1267856545020524</v>
+        <v>0.1831968008137119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N6">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O6">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P6">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q6">
-        <v>202.637293204734</v>
+        <v>290.6722782547516</v>
       </c>
       <c r="R6">
-        <v>1823.735638842606</v>
+        <v>2616.050504292765</v>
       </c>
       <c r="S6">
-        <v>0.07423296257858152</v>
+        <v>0.06505100852770133</v>
       </c>
       <c r="T6">
-        <v>0.07423296257858152</v>
+        <v>0.06505100852770136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.538463</v>
       </c>
       <c r="I7">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J7">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N7">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O7">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P7">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q7">
-        <v>130.4343879877721</v>
+        <v>173.8828231572527</v>
       </c>
       <c r="R7">
-        <v>1173.909491889949</v>
+        <v>1564.945408415274</v>
       </c>
       <c r="S7">
-        <v>0.04778257195073048</v>
+        <v>0.03891411000711184</v>
       </c>
       <c r="T7">
-        <v>0.04778257195073048</v>
+        <v>0.03891411000711185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.538463</v>
       </c>
       <c r="I8">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J8">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.466423</v>
       </c>
       <c r="O8">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P8">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q8">
         <v>51.12030616976099</v>
@@ -948,10 +948,10 @@
         <v>460.082755527849</v>
       </c>
       <c r="S8">
-        <v>0.01872711441655224</v>
+        <v>0.01144046997723446</v>
       </c>
       <c r="T8">
-        <v>0.01872711441655225</v>
+        <v>0.01144046997723446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.538463</v>
       </c>
       <c r="I9">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J9">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N9">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O9">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P9">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q9">
-        <v>686.8428699113638</v>
+        <v>1948.511558001731</v>
       </c>
       <c r="R9">
-        <v>6181.585829202275</v>
+        <v>17536.60402201558</v>
       </c>
       <c r="S9">
-        <v>0.2516140057594525</v>
+        <v>0.4360671844488948</v>
       </c>
       <c r="T9">
-        <v>0.2516140057594525</v>
+        <v>0.4360671844488948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>186.538463</v>
       </c>
       <c r="I10">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J10">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N10">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O10">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P10">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q10">
-        <v>3.220441478223778</v>
+        <v>5.136004954770778</v>
       </c>
       <c r="R10">
-        <v>28.983973304014</v>
+        <v>46.224044592937</v>
       </c>
       <c r="S10">
-        <v>0.001179757723559606</v>
+        <v>0.001149412335146373</v>
       </c>
       <c r="T10">
-        <v>0.001179757723559606</v>
+        <v>0.001149412335146373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.538463</v>
       </c>
       <c r="I11">
-        <v>0.7703334575702768</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="J11">
-        <v>0.7703334575702769</v>
+        <v>0.7560275996686664</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N11">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O11">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P11">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q11">
-        <v>1231.198334860178</v>
+        <v>1199.563877988388</v>
       </c>
       <c r="R11">
-        <v>11080.7850137416</v>
+        <v>10796.0749018955</v>
       </c>
       <c r="S11">
-        <v>0.451030007719982</v>
+        <v>0.2684564229002789</v>
       </c>
       <c r="T11">
-        <v>0.4510300077199821</v>
+        <v>0.2684564229002789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H12">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I12">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J12">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N12">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O12">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P12">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q12">
-        <v>0.8718856206862224</v>
+        <v>6.564092441101335</v>
       </c>
       <c r="R12">
-        <v>7.846970586176001</v>
+        <v>59.076831969912</v>
       </c>
       <c r="S12">
-        <v>0.0003194014864174648</v>
+        <v>0.001469011203705053</v>
       </c>
       <c r="T12">
-        <v>0.0003194014864174648</v>
+        <v>0.001469011203705053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H13">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I13">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J13">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.466423</v>
       </c>
       <c r="O13">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P13">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q13">
-        <v>0.341712492864</v>
+        <v>1.929796222668</v>
       </c>
       <c r="R13">
-        <v>3.075412435776</v>
+        <v>17.368166004012</v>
       </c>
       <c r="S13">
-        <v>0.0001251809590141846</v>
+        <v>0.0004318787855905545</v>
       </c>
       <c r="T13">
-        <v>0.0001251809590141846</v>
+        <v>0.0004318787855905546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H14">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I14">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J14">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N14">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O14">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P14">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q14">
-        <v>4.591185125219556</v>
+        <v>73.5564891174489</v>
       </c>
       <c r="R14">
-        <v>41.320666126976</v>
+        <v>662.00840205704</v>
       </c>
       <c r="S14">
-        <v>0.001681907945974286</v>
+        <v>0.01646157600434578</v>
       </c>
       <c r="T14">
-        <v>0.001681907945974287</v>
+        <v>0.01646157600434578</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H15">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I15">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J15">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N15">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O15">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P15">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q15">
-        <v>0.02152696585955555</v>
+        <v>0.1938846557062222</v>
       </c>
       <c r="R15">
-        <v>0.193742692736</v>
+        <v>1.744961901356</v>
       </c>
       <c r="S15">
-        <v>7.886062954207763E-06</v>
+        <v>4.33904205363613E-05</v>
       </c>
       <c r="T15">
-        <v>7.886062954207765E-06</v>
+        <v>4.33904205363613E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4156373333333334</v>
+        <v>2.347281333333334</v>
       </c>
       <c r="H16">
-        <v>1.246912</v>
+        <v>7.041844</v>
       </c>
       <c r="I16">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="J16">
-        <v>0.00514927600880827</v>
+        <v>0.02854011087547773</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N16">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O16">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P16">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q16">
-        <v>8.229916519239111</v>
+        <v>45.28364585500667</v>
       </c>
       <c r="R16">
-        <v>74.06924867315199</v>
+        <v>407.55281269506</v>
       </c>
       <c r="S16">
-        <v>0.003014899554448126</v>
+        <v>0.01013425446129998</v>
       </c>
       <c r="T16">
-        <v>0.003014899554448126</v>
+        <v>0.01013425446129998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H17">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I17">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J17">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N17">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O17">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P17">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q17">
-        <v>6.650959063846555</v>
+        <v>5.656795826197333</v>
       </c>
       <c r="R17">
-        <v>59.858631574619</v>
+        <v>50.911162435776</v>
       </c>
       <c r="S17">
-        <v>0.002436473501446597</v>
+        <v>0.001265962738995433</v>
       </c>
       <c r="T17">
-        <v>0.002436473501446597</v>
+        <v>0.001265962738995433</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H18">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I18">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J18">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.466423</v>
       </c>
       <c r="O18">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P18">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q18">
-        <v>2.606667374390999</v>
+        <v>1.663057508064</v>
       </c>
       <c r="R18">
-        <v>23.460006369519</v>
+        <v>14.967517572576</v>
       </c>
       <c r="S18">
-        <v>0.0009549113028393722</v>
+        <v>0.0003721839894353961</v>
       </c>
       <c r="T18">
-        <v>0.0009549113028393723</v>
+        <v>0.0003721839894353962</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H19">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I19">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J19">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N19">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O19">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P19">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q19">
-        <v>35.02269517685488</v>
+        <v>63.38942425976889</v>
       </c>
       <c r="R19">
-        <v>315.204256591694</v>
+        <v>570.50481833792</v>
       </c>
       <c r="S19">
-        <v>0.01283000961643224</v>
+        <v>0.01418623751410631</v>
       </c>
       <c r="T19">
-        <v>0.01283000961643224</v>
+        <v>0.01418623751410631</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H20">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I20">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J20">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N20">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O20">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P20">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q20">
-        <v>0.1642130175148888</v>
+        <v>0.1670856894542222</v>
       </c>
       <c r="R20">
-        <v>1.477917157634</v>
+        <v>1.503771205088</v>
       </c>
       <c r="S20">
-        <v>6.015683782245624E-05</v>
+        <v>3.73929453293704E-05</v>
       </c>
       <c r="T20">
-        <v>6.015683782245624E-05</v>
+        <v>3.73929453293704E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.170584333333333</v>
+        <v>2.022837333333333</v>
       </c>
       <c r="H21">
-        <v>9.511752999999999</v>
+        <v>6.068512</v>
       </c>
       <c r="I21">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="J21">
-        <v>0.0392799504091789</v>
+        <v>0.0245952630204769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N21">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O21">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P21">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q21">
-        <v>62.77983782465977</v>
+        <v>39.02448680698667</v>
       </c>
       <c r="R21">
-        <v>565.0185404219379</v>
+        <v>351.22038126288</v>
       </c>
       <c r="S21">
-        <v>0.02299839915063823</v>
+        <v>0.008733485832610388</v>
       </c>
       <c r="T21">
-        <v>0.02299839915063823</v>
+        <v>0.00873348583261039</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H22">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I22">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J22">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N22">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O22">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P22">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q22">
-        <v>9.89715118947489</v>
+        <v>1.757216272575334</v>
       </c>
       <c r="R22">
-        <v>89.074360705274</v>
+        <v>15.814946453178</v>
       </c>
       <c r="S22">
-        <v>0.003625664566791051</v>
+        <v>0.0003932562520878957</v>
       </c>
       <c r="T22">
-        <v>0.003625664566791051</v>
+        <v>0.0003932562520878958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H23">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I23">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J23">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.466423</v>
       </c>
       <c r="O23">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P23">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q23">
-        <v>3.878926461185999</v>
+        <v>0.516609014217</v>
       </c>
       <c r="R23">
-        <v>34.91033815067399</v>
+        <v>4.649481127953</v>
       </c>
       <c r="S23">
-        <v>0.001420983266625884</v>
+        <v>0.0001156145250283017</v>
       </c>
       <c r="T23">
-        <v>0.001420983266625884</v>
+        <v>0.0001156145250283017</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H24">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I24">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J24">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N24">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O24">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P24">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q24">
-        <v>52.11653024785821</v>
+        <v>19.69116992036222</v>
       </c>
       <c r="R24">
-        <v>469.048772230724</v>
+        <v>177.22052928326</v>
       </c>
       <c r="S24">
-        <v>0.01909206532731355</v>
+        <v>0.004406785779850886</v>
       </c>
       <c r="T24">
-        <v>0.01909206532731355</v>
+        <v>0.004406785779850886</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H25">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I25">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J25">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N25">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O25">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P25">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q25">
-        <v>0.2443619102182222</v>
+        <v>0.05190318007655556</v>
       </c>
       <c r="R25">
-        <v>2.199257191964</v>
+        <v>0.467128620689</v>
       </c>
       <c r="S25">
-        <v>8.951811510101739E-05</v>
+        <v>1.161567325940771E-05</v>
       </c>
       <c r="T25">
-        <v>8.95181151010174E-05</v>
+        <v>1.161567325940771E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.718079333333333</v>
+        <v>0.6283703333333334</v>
       </c>
       <c r="H26">
-        <v>14.154238</v>
+        <v>1.885111</v>
       </c>
       <c r="I26">
-        <v>0.05845166150968339</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="J26">
-        <v>0.0584516615096834</v>
+        <v>0.007640225621667095</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N26">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O26">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P26">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q26">
-        <v>93.42134579941643</v>
+        <v>12.12249219400167</v>
       </c>
       <c r="R26">
-        <v>840.7921121947479</v>
+        <v>109.102429746015</v>
       </c>
       <c r="S26">
-        <v>0.0342234302338519</v>
+        <v>0.002712953391440604</v>
       </c>
       <c r="T26">
-        <v>0.0342234302338519</v>
+        <v>0.002712953391440604</v>
       </c>
     </row>
   </sheetData>
